--- a/financialPlanning.xlsx
+++ b/financialPlanning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Description</t>
   </si>
@@ -34,6 +34,9 @@
     <t>SallieMae Loan</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>ACS Loan</t>
   </si>
   <si>
@@ -41,6 +44,27 @@
   </si>
   <si>
     <t>Sti Loan</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>mastercard</t>
+  </si>
+  <si>
+    <t>earthtreks</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -54,6 +78,7 @@
   <fonts count="5">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -74,6 +99,7 @@
     </font>
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
@@ -143,20 +169,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D5"/>
+  <dimension ref="A2:D20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A6" activeCellId="0" pane="topLeft" sqref="A6"/>
+      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2" s="2">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -174,21 +200,113 @@
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>103.24</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>132.15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>222.16</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1588</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="D20" s="1" t="inlineStr">
+        <f aca="false">SUM(D2:D19)</f>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -209,17 +327,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -234,17 +352,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/financialPlanning.xlsx
+++ b/financialPlanning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Description</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Amount</t>
   </si>
   <si>
+    <t>most Recent</t>
+  </si>
+  <si>
     <t>SallieMae Loan</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t>Mortgage</t>
   </si>
   <si>
+    <t>checking</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
@@ -64,16 +70,17 @@
     <t>earthtreks</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>debitmaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="165"/>
+    <numFmt formatCode="MM/DD/YY" numFmtId="166"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -147,11 +154,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -169,10 +177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D12" activeCellId="0" pane="topLeft" sqref="D12"/>
+      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -182,7 +190,7 @@
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -195,13 +203,16 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>28</v>
@@ -209,13 +220,16 @@
       <c r="D3" s="1" t="n">
         <v>103.24</v>
       </c>
+      <c r="E3" s="4" t="n">
+        <v>41158</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>14</v>
@@ -226,10 +240,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>26</v>
@@ -240,24 +254,27 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1588</v>
+        <v>1588.89</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>41157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>20</v>
@@ -265,10 +282,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>150</v>
@@ -276,23 +293,23 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>

--- a/financialPlanning.xlsx
+++ b/financialPlanning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Description</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>debitmaster</t>
+  </si>
+  <si>
+    <t>Gas</t>
   </si>
 </sst>
 </file>
@@ -180,7 +183,7 @@
   <dimension ref="A2:E20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
+      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -316,6 +319,14 @@
       </c>
       <c r="D13" s="1" t="n">
         <v>70</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">

--- a/financialPlanning.xlsx
+++ b/financialPlanning.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Description</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Gas</t>
+  </si>
+  <si>
+    <t>Total Bills</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Remainder</t>
   </si>
 </sst>
 </file>
@@ -180,20 +189,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:E20"/>
+  <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
+      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12:I14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2" s="2">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -210,7 +219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
@@ -241,7 +250,7 @@
         <v>132.15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -298,6 +307,9 @@
       <c r="A11" s="0" t="s">
         <v>14</v>
       </c>
+      <c r="D11" s="1" t="n">
+        <v>242.02</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
@@ -330,8 +342,30 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="C20" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="D20" s="1" t="inlineStr">
         <f aca="false">SUM(D2:D19)</f>
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
+      <c r="C21" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>4772</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
+      <c r="C22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <f aca="false">D21-D20</f>
         <is>
           <t/>
         </is>
@@ -356,11 +390,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="H12:I14 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -381,11 +415,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="H12:I14 A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/financialPlanning.xlsx
+++ b/financialPlanning.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="264" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="264"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Description</t>
   </si>
@@ -83,45 +82,32 @@
   </si>
   <si>
     <t>Remainder</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00" numFmtId="165"/>
-    <numFmt formatCode="MM/DD/YY" numFmtId="166"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00;[Red]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,7 +119,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -141,68 +127,324 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H12" activeCellId="0" pane="topLeft" sqref="H12:I14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.6941176470588"/>
+    <col min="1" max="1" width="14.140625"/>
+    <col min="2" max="3" width="11.7109375"/>
+    <col min="4" max="4" width="11.7109375" style="1"/>
+    <col min="5" max="1025" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2" s="2">
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="12.75">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -219,163 +461,158 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5" ht="12.75">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>103.24</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E3" s="4">
         <v>41158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5" ht="12.75">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>132.15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:5" ht="12.75">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>222.16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:5" ht="12.75">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>1588.89</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>41157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:5" ht="12.75">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:5" ht="12.75">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:5" ht="12.75">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>242.02</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:5" ht="12.75">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:5" ht="12.75">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>350</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
-      <c r="C20" s="0" t="s">
+    <row r="20" spans="3:4" ht="12.75">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1" t="inlineStr">
-        <f aca="false">SUM(D2:D19)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
-      <c r="C21" s="0" t="s">
+      <c r="D20" s="1">
+        <f>SUM(D2:D19)</f>
+        <v>2878.46</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" ht="12.75">
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>4772</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
-      <c r="C22" s="0" t="s">
+    <row r="22" spans="3:4" ht="12.75">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="inlineStr">
-        <f aca="false">D21-D20</f>
-        <is>
-          <t/>
-        </is>
+      <c r="D22" s="1">
+        <f>D21-D20</f>
+        <v>1893.54</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -384,23 +621,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="H12:I14 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="H12:I14 A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
+    <col min="1" max="1025" width="11.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -409,23 +643,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="H12:I14 A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="H12:I14 A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
+    <col min="1" max="1025" width="11.7109375"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/financialPlanning.xlsx
+++ b/financialPlanning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Description</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>cell phone bill</t>
   </si>
 </sst>
 </file>
@@ -430,13 +433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E22"/>
+  <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.140625"/>
     <col min="2" max="3" width="11.7109375"/>
@@ -444,7 +447,7 @@
     <col min="5" max="1025" width="11.7109375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" s="2" customFormat="1" ht="12.75">
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,7 +464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -478,7 +481,7 @@
         <v>41158</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="12.75">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -492,7 +495,7 @@
         <v>132.15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="12.75">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -506,7 +509,7 @@
         <v>222.16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -523,7 +526,7 @@
         <v>41157</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -534,7 +537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="12.75">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -545,68 +548,79 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="12.75">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <v>242.02</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="12.75">
-      <c r="A12" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75">
-      <c r="A13" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="12.75">
-      <c r="A15" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D17" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="3:4" ht="12.75">
-      <c r="C20" t="s">
+    <row r="22" spans="1:4">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1">
-        <f>SUM(D2:D19)</f>
-        <v>2878.46</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" ht="12.75">
-      <c r="C21" t="s">
+      <c r="D22" s="1">
+        <f>SUM(D2:D21)</f>
+        <v>2998.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D23" s="1">
         <v>4772</v>
       </c>
     </row>
-    <row r="22" spans="3:4" ht="12.75">
-      <c r="C22" t="s">
+    <row r="24" spans="1:4">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1">
-        <f>D21-D20</f>
-        <v>1893.54</v>
+      <c r="D24" s="1">
+        <f>D23-D22</f>
+        <v>1773.54</v>
       </c>
     </row>
   </sheetData>
@@ -627,7 +641,7 @@
       <selection activeCellId="1" sqref="H12:I14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1025" width="11.7109375"/>
   </cols>
@@ -649,7 +663,7 @@
       <selection activeCellId="1" sqref="H12:I14 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1025" width="11.7109375"/>
   </cols>
